--- a/DATA/IsoData/CPERIsoData.xlsx
+++ b/DATA/IsoData/CPERIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">48afb5c3-9dce-434c-8ede-2b217c9a98f2</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">772d5dd7-3d20-45c6-85ba-9490940c3841</t>
   </si>
   <si>
     <t xml:space="preserve">CPER.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144340Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a1435375-6991-49ce-a1ad-0bd7011f2d93</t>
+    <t xml:space="preserve">20210111T165306Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c01eaf79-bb72-4687-8394-52e18e382eee</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20181211.1059</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000051158</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144925Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad58c4d1-c070-40f9-8ede-5356ab652ed4</t>
+    <t xml:space="preserve">20210111T165851Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff57b0ac-459f-4bf8-a579-96fd3b3d62ac</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20190501.1059</t>
@@ -116,10 +122,10 @@
     <t xml:space="preserve">A00000090085</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T145220Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0992bd91-cf05-4b83-8fc4-5b1261632297</t>
+    <t xml:space="preserve">20210111T171302Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83c2b873-9965-4183-b1c6-02cb0a2558aa</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20190513.1032</t>
@@ -131,7 +137,7 @@
     <t xml:space="preserve">A00000089947</t>
   </si>
   <si>
-    <t xml:space="preserve">843b56ad-ce2c-45af-a91c-09fbccea0094</t>
+    <t xml:space="preserve">28b574d2-9dea-4c2d-9333-daebbf2de8b2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20190529.1137</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000090631</t>
   </si>
   <si>
-    <t xml:space="preserve">3137c0e1-0a5d-4775-b0ce-b5e694830f06</t>
+    <t xml:space="preserve">f37209de-ec65-463e-8af9-5f7db2601733</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20190611.1122</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000090635</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T145437Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3923a837-d5f6-4c5d-9780-589a19358da4</t>
+    <t xml:space="preserve">20210111T170833Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b73e1aa-016e-4e33-86dd-6910cada142b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20190625.1022</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000090721</t>
   </si>
   <si>
-    <t xml:space="preserve">f2d0bdb9-70cd-45bf-a11c-9cc2ecd41ce6</t>
+    <t xml:space="preserve">30d8927f-3ca6-41ab-ae6b-e01d6dd033e3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20190710.0930</t>
@@ -182,10 +188,10 @@
     <t xml:space="preserve">A00000091057</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143421Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d7b1505a-6fd1-4dcf-8ec2-fb9d68c2eaf6</t>
+    <t xml:space="preserve">20210111T183205Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c8b2aa04-dad8-43a0-bc4f-ddfaada98fd2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20190917.1142</t>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">A00000092618</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144414Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54004b8a-3c55-4c9a-a907-6ecfb40a1461</t>
+    <t xml:space="preserve">20210111T165250Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0f93c62d-c157-4e3c-948c-d7486984a112</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20191002.1120</t>
@@ -212,10 +218,10 @@
     <t xml:space="preserve">A00000092281</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144803Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df84c147-e7cb-4000-bdb8-16f0bd14c5be</t>
+    <t xml:space="preserve">20210111T165623Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94eb9749-4867-4e0e-b4fe-53765056825f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20191113.1007</t>
@@ -230,10 +236,10 @@
     <t xml:space="preserve">Tiny volume of sample</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T145034Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31ec6de0-9952-4649-a142-9221f5f3ae49</t>
+    <t xml:space="preserve">20210111T165637Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7b62ee5b-a2f3-4879-bfcb-d2306bd4d319</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20191121.1200</t>
@@ -245,7 +251,7 @@
     <t xml:space="preserve">A00000121260</t>
   </si>
   <si>
-    <t xml:space="preserve">afd52f78-d642-4103-8f23-3c0643d5f7b5</t>
+    <t xml:space="preserve">e53a7b92-421b-41c7-afb4-ba51de738024</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20191210.1140</t>
@@ -257,10 +263,10 @@
     <t xml:space="preserve">A00000089736</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T145108Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4f39301b-52d2-4520-86ca-416b9c6aaa05</t>
+    <t xml:space="preserve">20210111T165424Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206da83f-1bad-42f1-b5bc-0fd49831a816</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CPER.20191223.1001</t>
@@ -270,6 +276,96 @@
   </si>
   <si>
     <t xml:space="preserve">A00000089804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71c3f8cd-1286-4054-bf04-2c42969f4538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200218.1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200218.1006.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000089752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very tine volume of sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T171445Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31c62bb6-dc1b-4467-9cbb-b3d89ebd8a09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200623.1137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200623.1137.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T182254Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fb966dc3-3f04-4e32-b941-8428320bf8d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200707.1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200707.1050.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T165148Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7386096-97a8-4862-9ee3-026dbfb2ad74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200722.1106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200722.1106.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe5d58c7-484a-409c-8c95-53d7fec54e09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200803.1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200803.1023.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T165734Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d01aaeab-59ff-496b-be08-2bda84b93e42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200817.1329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CPER.20200817.1329.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121668</t>
   </si>
 </sst>
 </file>
@@ -607,7 +703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -661,23 +757,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43375.7138888889</v>
@@ -698,35 +797,38 @@
         <v>0.102</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43423.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43431.7194444444</v>
@@ -747,35 +849,38 @@
         <v>0.157</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43571.7201388889</v>
@@ -796,35 +901,38 @@
         <v>0.28</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43585.7166666667</v>
@@ -845,35 +953,38 @@
         <v>0.563</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43598.6965277778</v>
@@ -894,35 +1005,38 @@
         <v>0.147</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43614.7395833333</v>
@@ -943,35 +1057,38 @@
         <v>0.088</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43627.7319444444</v>
@@ -992,35 +1109,38 @@
         <v>0.186</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43641.6881944444</v>
@@ -1041,35 +1161,38 @@
         <v>0.045</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43697.6736111111</v>
@@ -1090,35 +1213,38 @@
         <v>0.202</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43725.7444444444</v>
@@ -1139,35 +1265,38 @@
         <v>0.064</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43766.7618055556</v>
@@ -1188,37 +1317,40 @@
         <v>0.498</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43782.7326388889</v>
@@ -1239,35 +1371,38 @@
         <v>0.1</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43790.8270833333</v>
@@ -1288,35 +1423,38 @@
         <v>0.091</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43809.7868055556</v>
@@ -1337,17 +1475,334 @@
         <v>0.136</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>43866.7861111111</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>43879.7125</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-12.333</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-139.09</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>43991.8618055556</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>44005.7340277778</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-9.309</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-75.667</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>44067.75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>44005.7430555556</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>44019.7013888889</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-10.765</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-83.946</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>44019.70625</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>44034.7125</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-8.858</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-75.463</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>44034.7215277778</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>44046.6826388889</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-8.355</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-63.803</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>113</v>
+      </c>
+      <c r="R20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>44046.6895833333</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>44060.8118055556</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-7.493</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-53.724</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
